--- a/Github注意事項.xlsx
+++ b/Github注意事項.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yano3\Desktop\スパダリセブン\SuperDarling7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27098B-0498-4BB0-838E-CC974DE8346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E774B0-0303-4329-A46C-9F5A908644E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Github注意事項" sheetId="1" r:id="rId1"/>
     <sheet name="GithubDesktopの使い方(目次)" sheetId="2" r:id="rId2"/>
-    <sheet name="フォルダの取得" sheetId="5" r:id="rId3"/>
+    <sheet name="フォルダの作成" sheetId="5" r:id="rId3"/>
     <sheet name="更新を受け取る" sheetId="6" r:id="rId4"/>
     <sheet name="アップロード" sheetId="7" r:id="rId5"/>
-    <sheet name="ブランチについて" sheetId="8" r:id="rId6"/>
-    <sheet name="進捗の破棄" sheetId="9" r:id="rId7"/>
-    <sheet name="更新を戻す" sheetId="10" r:id="rId8"/>
-    <sheet name="ブランチへのアップロード" sheetId="11" r:id="rId9"/>
+    <sheet name="進捗の破棄" sheetId="9" r:id="rId6"/>
+    <sheet name="以前の更新状態に戻す" sheetId="10" r:id="rId7"/>
+    <sheet name="ブランチの作成など" sheetId="8" r:id="rId8"/>
+    <sheet name="他ブランチへのアップロード" sheetId="11" r:id="rId9"/>
     <sheet name="ブランチへのダウンロード" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Github注意事項</t>
     <rPh sb="6" eb="10">
@@ -477,25 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Github上のデータを取得・変更する為のフォルダの取得</t>
-    <rPh sb="6" eb="7">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GitHubの更新を受け取る</t>
     <rPh sb="7" eb="9">
       <t>コウシン</t>
@@ -538,10 +519,6 @@
     <rPh sb="14" eb="16">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブランチについて</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -694,55 +671,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分のブランチの状態を別のブランチにアップロードする</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ベツ</t>
+    <t>Github進捗をアップロードする</t>
+    <rPh sb="6" eb="8">
+      <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分のブランチにメインブランチの状態をアップロードする</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
+    <t>z</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>過去の更新箇所まで戻す</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>コウシンカショ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
+    <t>Github上のデータを取得・変更する為のフォルダの作成</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Github進捗をアップロードする</t>
-    <rPh sb="6" eb="8">
-      <t>シンチョク</t>
+    <t>フォルダの作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・タイトルを記入後　Commit to</t>
-    <rPh sb="6" eb="8">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゴ</t>
+    <t>※フォルダを作成してない場合は先に作成してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　参照 :</t>
+    <rPh sb="1" eb="3">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチへのアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※どちらかといえばPG向けです。</t>
+    <rPh sb="11" eb="12">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチの作成など(PG向け)</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のブランチの状態を別のブランチにアップロードする(PG向け)</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のブランチにメインブランチの状態をアップロードする(PG向け)</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗の破棄</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴から以前の更新状態に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>コウシンジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴から以前の更新状態に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,8 +928,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="HG明朝E"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="HG明朝E"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="HGP明朝E"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +1019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -958,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -983,18 +1079,23 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,13 +1122,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:rowOff>118654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>51867</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1042,8 +1143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4191001"/>
-          <a:ext cx="11538856" cy="11340352"/>
+          <a:off x="0" y="4271554"/>
+          <a:ext cx="11486605" cy="12020005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,17 +1164,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="balanced" dir="t">
-            <a:rot lat="0" lon="0" rev="8700000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="190500" h="38100"/>
-        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1127,7 +1217,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>138797</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
+    <xdr:pic macro="[0]!図2_Click">
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
@@ -1154,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6451820" y="1741771"/>
-          <a:ext cx="3240000" cy="1809461"/>
+          <a:off x="6460765" y="1749391"/>
+          <a:ext cx="3239669" cy="1810786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1305,7 +1395,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リポジトリに紐づけられたファイルが無いので編集できない</a:t>
+            <a:t>リポジトリに紐づけられたフォルダが無いので編集できない</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1338,8 +1428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2575560" y="2575560"/>
-          <a:ext cx="533400" cy="594360"/>
+          <a:off x="2573241" y="2578542"/>
+          <a:ext cx="532075" cy="586408"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1435,7 +1525,7 @@
               <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
               <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>そのリポジトリと紐づけられたファイルを作成する必要がある</a:t>
+            <a:t>そのリポジトリと紐づけられたフォルダを作成する必要がある</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1468,8 +1558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37418" y="4482607"/>
-          <a:ext cx="3576917" cy="564328"/>
+          <a:off x="37418" y="4403205"/>
+          <a:ext cx="3597407" cy="543197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,8 +1749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190831" y="8281946"/>
-          <a:ext cx="4786685" cy="776908"/>
+          <a:off x="190831" y="8197227"/>
+          <a:ext cx="4824549" cy="765075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,8 +1894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="108667" y="11188811"/>
-          <a:ext cx="5742167" cy="1248354"/>
+          <a:off x="108667" y="11063862"/>
+          <a:ext cx="5780031" cy="1229422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,6 +2749,90 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C685C6-EE7A-1D47-D77D-CA195F650B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="15864840"/>
+          <a:ext cx="937260" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>目次に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2666,16 +2840,931 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6263B3-AC86-48E8-9584-C4467863A0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121920" y="1569721"/>
+          <a:ext cx="11912138" cy="6507479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>207086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>359035</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2579</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A436D032-4C5B-BE6E-F456-90E90616B164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2020195" y="2424506"/>
+          <a:ext cx="7894320" cy="4367493"/>
+          <a:chOff x="1851212" y="3479202"/>
+          <a:chExt cx="7795260" cy="4457140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD6880E-2500-F8D8-055B-10774ADDA511}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1851212" y="3479202"/>
+            <a:ext cx="7795260" cy="4457140"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="228600" cap="sq" cmpd="thickThin">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="76200">
+              <a:srgbClr val="000000"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7893085C-9927-4075-A4B5-BDD3EDF6E918}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4235824" y="3604707"/>
+            <a:ext cx="1372652" cy="279313"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C35216-A97A-481A-BE2C-98905FA5D363}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7283824" y="4779084"/>
+            <a:ext cx="644284" cy="276685"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9538F72-1F32-43D4-B02A-55A578528221}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5723966" y="3954332"/>
+            <a:ext cx="1435713" cy="780393"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC22441-D0DC-4F6F-A0F9-ECCE3404AAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069081" y="4175313"/>
+          <a:ext cx="5548052" cy="1349187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>更新箇所がある場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>pull origin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>と表示されるので押す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>押すのはどちらでもよい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>競合がなければ完了です。競合については　　　　　　　　を参照</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>また、自身の編集箇所がある場合にはコミットするか変更を破棄しなければならない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>コミットについては　　　　　　　破棄については            　を参照</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFEE26F-8D4E-C8F3-B0A3-2AB80BE191E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6903720" y="4777740"/>
+          <a:ext cx="960120" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>アップロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E5E28B-FBC8-4D59-807F-F4C1D01B620B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5433060" y="5143500"/>
+          <a:ext cx="891540" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>アップロード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64ABA0B-A983-4612-8F55-9F3A6A7CCAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="5143500"/>
+          <a:ext cx="762000" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>進捗の破棄</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D406781-B6F0-4407-ACFD-B803CBC1F2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="7459981"/>
+          <a:ext cx="937260" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>目次に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>78565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1124CD-9BD4-4200-BD92-38CBB62293E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1691640"/>
+          <a:ext cx="11871960" cy="12933505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2690,8 +3779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="396240" y="1645920"/>
-          <a:ext cx="9791700" cy="4716781"/>
+          <a:off x="1775460" y="2148840"/>
+          <a:ext cx="9883140" cy="4716781"/>
           <a:chOff x="434340" y="1684020"/>
           <a:chExt cx="9791700" cy="4716781"/>
         </a:xfrm>
@@ -2768,7 +3857,7 @@
               </a:prstGeom>
               <a:ln w="228600" cap="sq" cmpd="thickThin">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent5">
                     <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -2886,11 +3975,9 @@
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:ln w="9525" cmpd="sng">
+                  <a:ln w="38100" cmpd="sng">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FF0000"/>
                     </a:solidFill>
                   </a:ln>
                 </xdr:spPr>
@@ -3067,11 +4154,9 @@
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:ln w="9525" cmpd="sng">
+                  <a:ln w="38100" cmpd="sng">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="92D050"/>
                     </a:solidFill>
                   </a:ln>
                 </xdr:spPr>
@@ -3269,11 +4354,9 @@
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:ln w="9525" cmpd="sng">
+                  <a:ln w="38100" cmpd="sng">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:shade val="50000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFC000"/>
                     </a:solidFill>
                   </a:ln>
                 </xdr:spPr>
@@ -3320,7 +4403,7 @@
                         <a:latin typeface="HGS明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
                         <a:ea typeface="HGS明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
                       </a:rPr>
-                      <a:t>書かなくても良い。</a:t>
+                      <a:t>書かなくてもよい。</a:t>
                     </a:r>
                     <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                       <a:latin typeface="HGS明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
@@ -3438,7 +4521,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1699260" y="2377440"/>
-              <a:ext cx="1226820" cy="304800"/>
+              <a:ext cx="1165860" cy="304800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3498,11 +4581,9 @@
           <a:solidFill>
             <a:schemeClr val="lt1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
+          <a:ln w="38100" cmpd="sng">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -3563,6 +4644,4292 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518161</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D059242F-A774-4E62-AFCF-DF3D7291489D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266701" y="1805940"/>
+          <a:ext cx="1783080" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>画面の説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401911D5-283C-E8AE-E556-6588509B8CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539240" y="7627620"/>
+          <a:ext cx="5989320" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>タイトル欄を記入後、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t> to (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>ブランチ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>のボタンを押す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>105300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660B89B2-7F82-2C69-39E5-968501337925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783080" y="9365505"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 下 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CBD56F-42C1-E2DD-0327-0B31C6CAD539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="8260080"/>
+          <a:ext cx="1249680" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF06F75C-FEC6-720E-E245-A666B19EC49C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="6918960"/>
+          <a:ext cx="7620" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110358</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141890</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>225973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC8B77F-A2EF-6258-8BEC-54C26474DD89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4188372" y="9555743"/>
+          <a:ext cx="1376856" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>201536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099BAFD6-737B-4934-B1F3-101B50F2BC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7189076" y="10738157"/>
+          <a:ext cx="646386" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220717</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315310</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA46318-8F86-E96E-15D9-75F3BAE36C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5644055" y="9911255"/>
+          <a:ext cx="1439917" cy="788276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>183142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149509</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091A783B-8FB5-7EC3-9615-4984606BDD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="11072122"/>
+          <a:ext cx="5955949" cy="1561838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>コミット後、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を押すことでデータがアップロードされる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>押すのはどちらでもよい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>また、このブランチを複数人が編集していて、かつ同じ箇所を変更していた場合、どちらかの変更しか適応できない。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>競合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>競合箇所があった場合その一覧が出るので、ブランチ上の変更と自分の変更のどちらを優先するのか選ぶ必要がある。どちらかを優先した場合、優先されなかった側の変更は消えるので競合箇所があった場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Github</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>外に一旦バックアップを取っておくことを推奨する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>また競合対策の為、極力ブランチや作業フォルダ等は分けて作業するのが望ましい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD5E7DD-28C0-9382-8F35-D3347BA940E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="9745980"/>
+          <a:ext cx="594360" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF9E288-465B-B985-B8C7-9BA5EAFDA1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="9928860"/>
+          <a:ext cx="236220" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8439187-7F48-C346-7384-636FDE0CC56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="10271760"/>
+          <a:ext cx="3779520" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>ここから今までのアップロード履歴を確認できる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>また各履歴の箇所までデータを巻き戻す事もできる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8177CE33-4DAB-431D-8348-0D2269FAC4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="14264640"/>
+          <a:ext cx="937260" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>目次に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185531</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>212035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3A9B4F-AD81-4A5E-97A1-671B77563486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26504" y="1868556"/>
+          <a:ext cx="10376453" cy="8454888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185532</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324678</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>212034</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E8B09C-3232-5306-C716-6202C8A716A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="185532" y="2782958"/>
+          <a:ext cx="3008242" cy="2670311"/>
+          <a:chOff x="450574" y="2107097"/>
+          <a:chExt cx="2080594" cy="2133600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABAA826-F370-119F-1D92-C8D52AE5C7E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect r="73358" b="51891"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="463828" y="2107097"/>
+            <a:ext cx="2067340" cy="2133600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="228600" cap="sq" cmpd="thickThin">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="76200">
+              <a:srgbClr val="000000"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700F85B2-4522-684A-3AAB-7DE63E0E5457}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="450574" y="2809461"/>
+            <a:ext cx="907774" cy="139148"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9277</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E026A1C-5B7B-047A-41E3-14B667E5646F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6880529" y="2816087"/>
+          <a:ext cx="3032097" cy="2272748"/>
+          <a:chOff x="5091486" y="2517913"/>
+          <a:chExt cx="1733383" cy="1338470"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CFA84-A06D-6AF9-0A50-CFE982975B8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="170" t="-217" r="77486" b="70037"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5091486" y="2517913"/>
+            <a:ext cx="1733383" cy="1338470"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="228600" cap="sq" cmpd="thickThin">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="76200">
+              <a:srgbClr val="000000"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E7C131-73CD-4CA2-8F07-57E2C1F679FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5095461" y="3067878"/>
+            <a:ext cx="1013479" cy="165651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>655983</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59634</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF7BF59-5879-0C81-7FA6-65CEC0E85E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1517374" y="3273287"/>
+          <a:ext cx="1411356" cy="377687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>112642</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B276057-ED34-E7E8-5AFD-FDB558EF80C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2312503" y="2816088"/>
+          <a:ext cx="3452193" cy="675859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>破棄したい項目を選択し右クリック</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Discard changes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を選択する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92766</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470451</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE093544-0078-4BFB-B104-719E9DCCB012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92766" y="1941443"/>
+          <a:ext cx="3246781" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>更新の一部を破棄したい場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EE923C-F640-4695-B414-DFBD48476B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6732105" y="1961321"/>
+          <a:ext cx="3246781" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>更新の全てを破棄したい場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15903</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C8CF8-A019-4E0B-838A-FF0999EFAEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6294782" y="3945834"/>
+          <a:ext cx="592373" cy="407504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>662610</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D547A11D-1387-32E7-1E4F-640077B79420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524001" y="3902765"/>
+          <a:ext cx="761999" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DB2FAE-D41D-499E-B9FC-335C0DC69ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5367129" y="4412975"/>
+          <a:ext cx="3154019" cy="622851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t> files</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>右クリックし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Discard all changes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を選択する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>483705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60AEE47-2483-4F0E-9516-9C5CF89910BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8693427" y="4174434"/>
+          <a:ext cx="1086677" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291548</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矢印: 下 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B1581A-6765-4975-8EE8-3088512254A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4499113" y="5327374"/>
+          <a:ext cx="1325218" cy="987287"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>195740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9A42CA-1F5E-AAD8-1922-E43A2E419700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="35720" t="31827" r="35891" b="36800"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067877" y="6685723"/>
+          <a:ext cx="4333462" cy="2693774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556592</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516835</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>218660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05F4DC6-9C9F-4A7F-94CA-55DC26A29860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417983" y="8534401"/>
+          <a:ext cx="2623930" cy="1331842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>破棄しても問題なければ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Discard</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>changes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を押す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>破棄された内容は戻せません。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>また、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>Discardchanges</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>を押したタイミングでデータが破棄されるので、バックアップを取りたい場合は事前に行ってください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543339</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536713</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFB9D8B-A680-4F81-B9A7-D8E968C51E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4068417" y="8872330"/>
+          <a:ext cx="662609" cy="125896"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556592</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424069</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>201768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7E502A-2CEA-4487-ADFD-DE4CE1CD91A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4750905" y="8872332"/>
+          <a:ext cx="1205947" cy="281279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205409</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>192156</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B8036A-A70D-04E9-7EA9-D24EF1718ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3730487" y="7938052"/>
+          <a:ext cx="1325217" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F1FC04-EDFA-A9D0-2FE4-C2CDA045EA23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5022574" y="7673009"/>
+          <a:ext cx="1610139" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>破棄内容が表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>503582</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102373</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE66565-218F-4F5D-8857-34DA48AE6321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382539" y="9912626"/>
+          <a:ext cx="937260" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>目次に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26710</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146643</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479B328F-FA41-A454-BEB4-CF0F4E3F2B0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26710" y="1622065"/>
+          <a:ext cx="10357237" cy="15585883"/>
+          <a:chOff x="678180" y="1775460"/>
+          <a:chExt cx="10376453" cy="8454888"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58574E3-B8C6-46D1-B0CF-1FA83DC1E05A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="678180" y="1775460"/>
+            <a:ext cx="10376453" cy="8454888"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+              <a:srgbClr val="000000">
+                <a:alpha val="32000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="balanced" dir="t">
+              <a:rot lat="0" lon="0" rev="8700000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="190500" h="38100"/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C41B83-88BF-4584-BB79-E75A55CD13BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9997440" y="9791700"/>
+            <a:ext cx="937260" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" u="sng" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+                <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              </a:rPr>
+              <a:t>目次に戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44295</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>178903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6259445B-7B73-A362-3A12-B72A80E7D6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6591" t="12485" r="16229" b="67836"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="905686" y="8898833"/>
+          <a:ext cx="8682262" cy="1053549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>654207</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99778</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6040420A-BB8E-4EB7-34D1-149CBB90E5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6882" t="12828" r="16226" b="67151"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="846364" y="11536017"/>
+          <a:ext cx="8821484" cy="1311965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177010</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>79514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C736EB6-E545-1A64-7A61-9F70618A8174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6628" t="12390" r="16341" b="56235"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038401" y="14299097"/>
+          <a:ext cx="7257460" cy="1689652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53008</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324678</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9335C060-0491-00FA-9599-5B6C74568830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6274904" y="1901687"/>
+          <a:ext cx="2948609" cy="2445026"/>
+          <a:chOff x="3257716" y="2166731"/>
+          <a:chExt cx="2222057" cy="2445026"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE38DAC-A6A5-99CD-BDC8-18223D868175}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="-349" r="67244" b="36907"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3272956" y="2166731"/>
+            <a:ext cx="2206817" cy="2445026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="228600" cap="sq" cmpd="thickThin">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:innerShdw blurRad="76200">
+              <a:srgbClr val="000000"/>
+            </a:innerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB68A5EE-5890-0B44-81C1-C07122CAE02A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3257716" y="3059264"/>
+            <a:ext cx="1086015" cy="231913"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825DDC09-C4A0-FD52-041F-A1F25FB4D813}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4227443" y="4015409"/>
+            <a:ext cx="364435" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>570506</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00378E6-B80F-43C0-9CC9-E99280118E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="318052" y="1782417"/>
+          <a:ext cx="1783080" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>手順の説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>230587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86138</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C98D0B2-0F4D-4390-A064-36B79DABDABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="284921" y="2688865"/>
+          <a:ext cx="5353878" cy="829587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>１．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>History</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>から戻したい履歴を選択し右クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>Copy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="sng">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="sng">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>SHA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>で履歴のパスを取得する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153063</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493172</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC4940B-7CB6-42D7-A0A2-1DF86D0EF6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705724" y="1681701"/>
+          <a:ext cx="340109" cy="454551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255957</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>197627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371311</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F29C80A-8321-E438-21DF-355B6A3F14EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="72641" b="56627"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7147087" y="5206949"/>
+          <a:ext cx="2123059" cy="1895645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="228600" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116593</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>210662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5199E9E4-CADA-4E90-BC7C-8382E2CA59D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="308750" y="5635863"/>
+          <a:ext cx="6123808" cy="826274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>２．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>Repository</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>Open in Command Pronpt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を選択する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398021</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38942</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651E705D-44A4-4BAE-858F-613DDD3C7877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619917" y="4974135"/>
+          <a:ext cx="310155" cy="425123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53761</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13252</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB82F2E9-EDB1-4BF7-91AB-F40A6E55206C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="915152" y="7871792"/>
+          <a:ext cx="8666170" cy="755373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>黒い画面にパスが表示されるので</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>下図だと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>SuperDarling7&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>まで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>それに続いて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t> reset --hard (Copy SHA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>でコピーしたパス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を入力し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>キーを押す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>172484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482639</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77286553-E7C9-4FBC-AD10-1C4FA82E3946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="364641" y="8672222"/>
+          <a:ext cx="310155" cy="425123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655982</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E836B78D-D442-4A79-9C81-FEDA19E47223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848139" y="10701131"/>
+          <a:ext cx="8746435" cy="576469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>特に問題が無ければまたパスが表示されるので、次に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>git push -f</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t> origin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" baseline="0">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112849</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423004</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>231641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009FC260-7ED8-477B-8AE3-C3BC26ED9066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="305006" y="11309405"/>
+          <a:ext cx="310155" cy="425123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655981</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BE78AB-D67B-45B0-B3F8-0AD9C38B9EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="848138" y="13477462"/>
+          <a:ext cx="5068957" cy="576469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>下図の様に特にエラーが無ければ完了です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" baseline="0">
+            <a:latin typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="HGP明朝E" panose="02020900000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291753</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>217336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601908</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>178633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C042B704-CAD9-42A1-A62C-9D0ECF493010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="483910" y="14039353"/>
+          <a:ext cx="310155" cy="425123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="HG明朝E" panose="02020909000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3831,6 +9198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3870,7 +9238,7 @@
     </row>
     <row r="6" spans="1:1" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="3" customFormat="1" ht="25.2" customHeight="1">
@@ -3885,7 +9253,7 @@
     </row>
     <row r="9" spans="1:1" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="3" customFormat="1" ht="3.6" customHeight="1"/>
@@ -3959,76 +9327,89 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F20963C-0FEE-487A-B5E2-31F302B4355A}">
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>39</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{D5A435BB-92D3-491F-BD83-C428A963B4D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1134B124-0383-4751-B537-D3CF99CFA4CE}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
-    <col min="2" max="2" width="74.8984375" customWidth="1"/>
+    <col min="2" max="2" width="76.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
@@ -4039,56 +9420,62 @@
     <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1"/>
     <row r="4" spans="1:4" ht="33.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="21" t="s">
-        <v>24</v>
+      <c r="B9" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="21" t="s">
-        <v>36</v>
+      <c r="B10" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="14" t="s">
-        <v>34</v>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="12" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="14" t="s">
-        <v>35</v>
+      <c r="B12" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="フォルダの取得!A5" display="Github上のデータを取得・変更する為のフォルダの取得" xr:uid="{C05637CD-3490-49E2-A7D2-BB5518A21032}"/>
-    <hyperlink ref="B6:B10" location="GithubDesktopの使い方!A1" display="GitHubの更新を受け取る" xr:uid="{02D80382-D738-4918-BAF5-28F69836EA49}"/>
+    <hyperlink ref="B5" location="フォルダの作成!A5" display="Github上のデータを取得・変更する為のフォルダの作成" xr:uid="{C05637CD-3490-49E2-A7D2-BB5518A21032}"/>
+    <hyperlink ref="B6:B11" location="GithubDesktopの使い方!A1" display="GitHubの更新を受け取る" xr:uid="{02D80382-D738-4918-BAF5-28F69836EA49}"/>
     <hyperlink ref="B6" location="更新を受け取る!A5" display="GitHubの更新を受け取る" xr:uid="{5893F69F-A6E0-4C35-B3C7-EF12AC022263}"/>
+    <hyperlink ref="B9" location="以前の更新状態に戻す!A5" display="履歴から以前の更新状態に戻す" xr:uid="{004DA573-B23D-4F09-A003-5249E60C33D6}"/>
+    <hyperlink ref="B7" location="アップロード!A5" display="GitHubに自身の作業の進捗をアップロードする" xr:uid="{4A32278C-05DF-4136-98F5-65098E1DBA1C}"/>
+    <hyperlink ref="B8" location="進捗の破棄!A5" display="自身の作業の進捗を破棄したい場合" xr:uid="{DFA056A4-676F-46BF-B919-2BCD54D05116}"/>
+    <hyperlink ref="B10" location="ブランチの作成など!A5" display="ブランチの作成など(PG向け)" xr:uid="{6B4B683C-96DC-457D-976F-1F28A5692341}"/>
+    <hyperlink ref="B11" location="他ブランチへのアップロード!A5" display="自分のブランチの状態を別のブランチにアップロードする(PG向け)" xr:uid="{DA5AAE94-6301-4AFB-B8BF-B33521A4EF79}"/>
+    <hyperlink ref="B12" location="ブランチへのダウンロード!A5" display="自分のブランチにメインブランチの状態をアップロードする(PG向け)" xr:uid="{2A08A792-756E-4E68-AC30-868F05DBF9CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4096,10 +9483,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C23C82B-7AD5-4AB2-8122-4813B260AA5F}">
-  <dimension ref="A1:I10"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4111,80 +9499,83 @@
     <col min="10" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:13" customFormat="1" ht="18">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>34</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:13" ht="14.4" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.4">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4">
-      <c r="B8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4">
-      <c r="B9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4">
-      <c r="B10" s="19" t="s">
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="B9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.4">
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="M11" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4195,321 +9586,380 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08E4D4C-81B8-456C-96C0-089DFA6705AE}">
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.59765625" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
+    <row r="3" spans="1:11" s="19" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{9FB37DB4-637D-4793-AD5B-D284A03E7B7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A33A2A2-7B82-461C-BEFC-3A6B2C72CB6C}">
-  <dimension ref="A1:I30"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{6D7787DF-4788-4A39-B3CE-FD7167B9A8A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C14C9-FFF4-473B-B952-A09C8F60269D}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{BA1F945B-D6B8-4859-AFCE-2342AF2A9A48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C74136-D508-402A-9A62-30FC08321A29}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>38</v>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>45</v>
       </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{ABA1F474-0F19-4FE6-9EBF-1C5A24899D27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D92B5-9E91-4D49-AF54-E0CB24AFB0D2}">
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C14C9-FFF4-473B-B952-A09C8F60269D}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C74136-D508-402A-9A62-30FC08321A29}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2:K2" location="フォルダの作成!A5" display="フォルダの作成" xr:uid="{BBBBF3F8-7CF9-4C3A-94C3-59DA338FC18E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA74AA2-DE39-4D88-8DF3-E441265B2DF4}">
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q17:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="6.8984375" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" customWidth="1"/>
     <col min="7" max="8" width="8.796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="13.2">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="14.4">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.2"/>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="14.4" customHeight="1"/>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="13.2"/>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1"/>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="45" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
